--- a/ahca_data/all_facilities.xlsx
+++ b/ahca_data/all_facilities.xlsx
@@ -7602,12 +7602,12 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>11/6/2023 12:00:00 AM</t>
+          <t>11/6/2025 12:00:00 AM</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>11/5/2025 12:00:00 AM</t>
+          <t>11/5/2027 12:00:00 AM</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -56190,12 +56190,12 @@
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr">
         <is>
-          <t>9/27/2023 12:00:00 AM</t>
+          <t>9/27/2025 12:00:00 AM</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>9/26/2025 12:00:00 AM</t>
+          <t>9/26/2027 12:00:00 AM</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">

--- a/ahca_data/all_facilities.xlsx
+++ b/ahca_data/all_facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Documents/purple/web-scraper/ahca_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0D04C3-38E4-C04E-B89B-B76AB6761D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB93B3E0-ED19-DD42-ADB5-BC3397455F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9160" windowWidth="34560" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11200" windowWidth="34560" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11303,10 +11303,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G409" sqref="G409"/>
+      <selection activeCell="F410" sqref="F410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11403,7 +11404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -11569,7 +11570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -11649,7 +11650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -11729,7 +11730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -11812,7 +11813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -11892,7 +11893,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -11978,7 +11979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -12058,7 +12059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -12138,7 +12139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -12215,7 +12216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -12309,7 +12310,7 @@
         <v>171</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>349956</v>
@@ -12372,7 +12373,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -12452,7 +12453,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>195</v>
       </c>
@@ -12535,7 +12536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -12615,7 +12616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -12695,7 +12696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>237</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>252</v>
       </c>
@@ -12852,7 +12853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>261</v>
       </c>
@@ -12932,7 +12933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>273</v>
       </c>
@@ -13018,7 +13019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>283</v>
       </c>
@@ -13095,7 +13096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>288</v>
       </c>
@@ -13175,7 +13176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>298</v>
       </c>
@@ -13255,7 +13256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>307</v>
       </c>
@@ -13341,7 +13342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>323</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>340</v>
       </c>
@@ -13504,7 +13505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>352</v>
       </c>
@@ -13584,7 +13585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>361</v>
       </c>
@@ -13658,7 +13659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>361</v>
       </c>
@@ -13738,7 +13739,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>384</v>
       </c>
@@ -13821,7 +13822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>399</v>
       </c>
@@ -13904,7 +13905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>410</v>
       </c>
@@ -13984,7 +13985,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>423</v>
       </c>
@@ -14064,7 +14065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>427</v>
       </c>
@@ -14144,7 +14145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>439</v>
       </c>
@@ -14224,7 +14225,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>450</v>
       </c>
@@ -14307,7 +14308,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>459</v>
       </c>
@@ -14390,7 +14391,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>472</v>
       </c>
@@ -14470,7 +14471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>478</v>
       </c>
@@ -14553,7 +14554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>491</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>505</v>
       </c>
@@ -14710,7 +14711,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>519</v>
       </c>
@@ -14790,7 +14791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>529</v>
       </c>
@@ -14870,7 +14871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>542</v>
       </c>
@@ -14953,7 +14954,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>552</v>
       </c>
@@ -15033,7 +15034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>558</v>
       </c>
@@ -15116,7 +15117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>568</v>
       </c>
@@ -15202,7 +15203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>573</v>
       </c>
@@ -15288,7 +15289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>584</v>
       </c>
@@ -15365,7 +15366,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>597</v>
       </c>
@@ -15439,7 +15440,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>609</v>
       </c>
@@ -15519,7 +15520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>618</v>
       </c>
@@ -15599,7 +15600,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>628</v>
       </c>
@@ -15676,7 +15677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>638</v>
       </c>
@@ -15753,7 +15754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>645</v>
       </c>
@@ -15836,7 +15837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>3637</v>
       </c>
@@ -15916,7 +15917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>666</v>
       </c>
@@ -15996,7 +15997,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>675</v>
       </c>
@@ -16076,7 +16077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>686</v>
       </c>
@@ -16156,7 +16157,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>695</v>
       </c>
@@ -16242,7 +16243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>695</v>
       </c>
@@ -16328,7 +16329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>695</v>
       </c>
@@ -16408,7 +16409,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>695</v>
       </c>
@@ -16488,7 +16489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>721</v>
       </c>
@@ -16574,7 +16575,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>733</v>
       </c>
@@ -16657,7 +16658,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>748</v>
       </c>
@@ -16740,7 +16741,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>754</v>
       </c>
@@ -16820,7 +16821,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>764</v>
       </c>
@@ -16903,7 +16904,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>772</v>
       </c>
@@ -16983,7 +16984,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>780</v>
       </c>
@@ -17063,7 +17064,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>791</v>
       </c>
@@ -17143,7 +17144,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>801</v>
       </c>
@@ -17223,7 +17224,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>811</v>
       </c>
@@ -17306,7 +17307,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>818</v>
       </c>
@@ -17386,7 +17387,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>829</v>
       </c>
@@ -17466,7 +17467,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>839</v>
       </c>
@@ -17549,7 +17550,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>846</v>
       </c>
@@ -17629,7 +17630,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>860</v>
       </c>
@@ -17709,7 +17710,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>869</v>
       </c>
@@ -17789,7 +17790,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>879</v>
       </c>
@@ -17869,7 +17870,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>888</v>
       </c>
@@ -17949,7 +17950,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>898</v>
       </c>
@@ -18032,7 +18033,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>905</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>917</v>
       </c>
@@ -18192,7 +18193,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>927</v>
       </c>
@@ -18272,7 +18273,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>935</v>
       </c>
@@ -18352,7 +18353,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>946</v>
       </c>
@@ -18432,7 +18433,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>950</v>
       </c>
@@ -18512,7 +18513,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>957</v>
       </c>
@@ -18589,7 +18590,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>965</v>
       </c>
@@ -18669,7 +18670,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>974</v>
       </c>
@@ -18749,7 +18750,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>982</v>
       </c>
@@ -18832,7 +18833,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>992</v>
       </c>
@@ -18915,7 +18916,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>999</v>
       </c>
@@ -18995,7 +18996,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1009</v>
       </c>
@@ -19078,7 +19079,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1020</v>
       </c>
@@ -19158,7 +19159,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1033</v>
       </c>
@@ -19238,7 +19239,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1042</v>
       </c>
@@ -19318,7 +19319,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1051</v>
       </c>
@@ -19398,7 +19399,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1057</v>
       </c>
@@ -19481,7 +19482,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1068</v>
       </c>
@@ -19561,7 +19562,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1078</v>
       </c>
@@ -19641,7 +19642,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1088</v>
       </c>
@@ -19724,7 +19725,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1100</v>
       </c>
@@ -19807,7 +19808,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1112</v>
       </c>
@@ -19884,7 +19885,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1124</v>
       </c>
@@ -19961,7 +19962,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1135</v>
       </c>
@@ -20041,7 +20042,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1144</v>
       </c>
@@ -20121,7 +20122,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1154</v>
       </c>
@@ -20201,7 +20202,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1162</v>
       </c>
@@ -20281,7 +20282,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1171</v>
       </c>
@@ -20361,7 +20362,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1176</v>
       </c>
@@ -20441,7 +20442,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1185</v>
       </c>
@@ -20521,7 +20522,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1190</v>
       </c>
@@ -20601,7 +20602,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1199</v>
       </c>
@@ -20681,7 +20682,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1210</v>
       </c>
@@ -20761,7 +20762,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1218</v>
       </c>
@@ -20841,7 +20842,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1227</v>
       </c>
@@ -20921,7 +20922,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1232</v>
       </c>
@@ -21001,7 +21002,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1243</v>
       </c>
@@ -21081,7 +21082,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1252</v>
       </c>
@@ -21164,7 +21165,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1263</v>
       </c>
@@ -21244,7 +21245,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1268</v>
       </c>
@@ -21324,7 +21325,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1279</v>
       </c>
@@ -21404,7 +21405,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1286</v>
       </c>
@@ -21484,7 +21485,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1293</v>
       </c>
@@ -21564,7 +21565,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1302</v>
       </c>
@@ -21644,7 +21645,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1316</v>
       </c>
@@ -21724,7 +21725,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1333</v>
       </c>
@@ -21804,7 +21805,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1344</v>
       </c>
@@ -21884,7 +21885,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1356</v>
       </c>
@@ -21964,7 +21965,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1366</v>
       </c>
@@ -22044,7 +22045,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1376</v>
       </c>
@@ -22124,7 +22125,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1382</v>
       </c>
@@ -22204,7 +22205,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1399</v>
       </c>
@@ -22284,7 +22285,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1410</v>
       </c>
@@ -22364,7 +22365,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1418</v>
       </c>
@@ -22444,7 +22445,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1428</v>
       </c>
@@ -22524,7 +22525,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1433</v>
       </c>
@@ -22604,7 +22605,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1440</v>
       </c>
@@ -22684,7 +22685,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1450</v>
       </c>
@@ -22764,7 +22765,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1458</v>
       </c>
@@ -22844,7 +22845,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1469</v>
       </c>
@@ -22924,7 +22925,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1479</v>
       </c>
@@ -23004,7 +23005,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1490</v>
       </c>
@@ -23084,7 +23085,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1500</v>
       </c>
@@ -23164,7 +23165,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1508</v>
       </c>
@@ -23244,7 +23245,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1520</v>
       </c>
@@ -23324,7 +23325,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1532</v>
       </c>
@@ -23401,7 +23402,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1539</v>
       </c>
@@ -23481,7 +23482,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1548</v>
       </c>
@@ -23561,7 +23562,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1558</v>
       </c>
@@ -23641,7 +23642,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1565</v>
       </c>
@@ -23721,7 +23722,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1573</v>
       </c>
@@ -23801,7 +23802,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1582</v>
       </c>
@@ -23881,7 +23882,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1593</v>
       </c>
@@ -23961,7 +23962,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1601</v>
       </c>
@@ -24041,7 +24042,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1611</v>
       </c>
@@ -24121,7 +24122,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1621</v>
       </c>
@@ -24201,7 +24202,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1629</v>
       </c>
@@ -24281,7 +24282,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1639</v>
       </c>
@@ -24361,7 +24362,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1647</v>
       </c>
@@ -24441,7 +24442,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1658</v>
       </c>
@@ -24521,7 +24522,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1667</v>
       </c>
@@ -24601,7 +24602,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1674</v>
       </c>
@@ -24681,7 +24682,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1683</v>
       </c>
@@ -24761,7 +24762,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1693</v>
       </c>
@@ -24841,7 +24842,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1703</v>
       </c>
@@ -24921,7 +24922,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1714</v>
       </c>
@@ -25001,7 +25002,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1721</v>
       </c>
@@ -25081,7 +25082,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1728</v>
       </c>
@@ -25161,7 +25162,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1737</v>
       </c>
@@ -25241,7 +25242,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1745</v>
       </c>
@@ -25321,7 +25322,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1756</v>
       </c>
@@ -25401,7 +25402,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1764</v>
       </c>
@@ -25481,7 +25482,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1774</v>
       </c>
@@ -25558,7 +25559,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1788</v>
       </c>
@@ -25638,7 +25639,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1799</v>
       </c>
@@ -25718,7 +25719,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1810</v>
       </c>
@@ -25798,7 +25799,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1820</v>
       </c>
@@ -25878,7 +25879,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1829</v>
       </c>
@@ -25958,7 +25959,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1837</v>
       </c>
@@ -26038,7 +26039,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1844</v>
       </c>
@@ -26118,7 +26119,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1855</v>
       </c>
@@ -26198,7 +26199,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1865</v>
       </c>
@@ -26278,7 +26279,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1873</v>
       </c>
@@ -26358,7 +26359,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1878</v>
       </c>
@@ -26438,7 +26439,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1888</v>
       </c>
@@ -26518,7 +26519,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1891</v>
       </c>
@@ -26598,7 +26599,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1902</v>
       </c>
@@ -26678,7 +26679,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1911</v>
       </c>
@@ -26758,7 +26759,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1920</v>
       </c>
@@ -26838,7 +26839,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1927</v>
       </c>
@@ -26918,7 +26919,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1936</v>
       </c>
@@ -26998,7 +26999,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1946</v>
       </c>
@@ -27078,7 +27079,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1956</v>
       </c>
@@ -27158,7 +27159,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1965</v>
       </c>
@@ -27238,7 +27239,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1973</v>
       </c>
@@ -27318,7 +27319,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1979</v>
       </c>
@@ -27398,7 +27399,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1986</v>
       </c>
@@ -27478,7 +27479,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1994</v>
       </c>
@@ -27558,7 +27559,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>2005</v>
       </c>
@@ -27638,7 +27639,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>2011</v>
       </c>
@@ -27718,7 +27719,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2020</v>
       </c>
@@ -27798,7 +27799,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>2031</v>
       </c>
@@ -27878,7 +27879,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>2041</v>
       </c>
@@ -27958,7 +27959,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>2048</v>
       </c>
@@ -28038,7 +28039,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>2053</v>
       </c>
@@ -28118,7 +28119,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>2062</v>
       </c>
@@ -28198,7 +28199,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>2072</v>
       </c>
@@ -28278,7 +28279,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>2078</v>
       </c>
@@ -28358,7 +28359,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>2088</v>
       </c>
@@ -28438,7 +28439,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>2098</v>
       </c>
@@ -28518,7 +28519,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2105</v>
       </c>
@@ -28598,7 +28599,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>2114</v>
       </c>
@@ -28678,7 +28679,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>2120</v>
       </c>
@@ -28758,7 +28759,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>2128</v>
       </c>
@@ -28835,7 +28836,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>2139</v>
       </c>
@@ -28912,7 +28913,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2148</v>
       </c>
@@ -28992,7 +28993,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>2157</v>
       </c>
@@ -29072,7 +29073,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>2167</v>
       </c>
@@ -29152,7 +29153,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>2175</v>
       </c>
@@ -29232,7 +29233,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>2185</v>
       </c>
@@ -29312,7 +29313,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>2195</v>
       </c>
@@ -29392,7 +29393,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>2202</v>
       </c>
@@ -29472,7 +29473,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>2210</v>
       </c>
@@ -29552,7 +29553,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2221</v>
       </c>
@@ -29629,7 +29630,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>2229</v>
       </c>
@@ -29709,7 +29710,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>2238</v>
       </c>
@@ -29789,7 +29790,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2245</v>
       </c>
@@ -29869,7 +29870,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>2255</v>
       </c>
@@ -29949,7 +29950,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>2263</v>
       </c>
@@ -30029,7 +30030,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>2271</v>
       </c>
@@ -30109,7 +30110,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>2280</v>
       </c>
@@ -30189,7 +30190,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2290</v>
       </c>
@@ -30269,7 +30270,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>2299</v>
       </c>
@@ -30346,7 +30347,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>2305</v>
       </c>
@@ -30423,7 +30424,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>2312</v>
       </c>
@@ -30503,7 +30504,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>2320</v>
       </c>
@@ -30583,7 +30584,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>2330</v>
       </c>
@@ -30663,7 +30664,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>2334</v>
       </c>
@@ -30743,7 +30744,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>2343</v>
       </c>
@@ -30823,7 +30824,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>2350</v>
       </c>
@@ -30903,7 +30904,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>2357</v>
       </c>
@@ -30983,7 +30984,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>2364</v>
       </c>
@@ -31063,7 +31064,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>2374</v>
       </c>
@@ -31143,7 +31144,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2383</v>
       </c>
@@ -31226,7 +31227,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>2394</v>
       </c>
@@ -31309,7 +31310,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>2402</v>
       </c>
@@ -31392,7 +31393,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2408</v>
       </c>
@@ -31475,7 +31476,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>2414</v>
       </c>
@@ -31555,7 +31556,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2422</v>
       </c>
@@ -31635,7 +31636,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>2432</v>
       </c>
@@ -31715,7 +31716,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>2440</v>
       </c>
@@ -31795,7 +31796,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>2449</v>
       </c>
@@ -31875,7 +31876,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>2457</v>
       </c>
@@ -31949,7 +31950,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>2469</v>
       </c>
@@ -32029,7 +32030,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>2480</v>
       </c>
@@ -32109,7 +32110,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>2488</v>
       </c>
@@ -32189,7 +32190,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>2494</v>
       </c>
@@ -32269,7 +32270,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>2502</v>
       </c>
@@ -32349,7 +32350,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>2509</v>
       </c>
@@ -32429,7 +32430,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2516</v>
       </c>
@@ -32509,7 +32510,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>2526</v>
       </c>
@@ -32589,7 +32590,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>2533</v>
       </c>
@@ -32669,7 +32670,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>2544</v>
       </c>
@@ -32749,7 +32750,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>2551</v>
       </c>
@@ -32829,7 +32830,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>2562</v>
       </c>
@@ -32909,7 +32910,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>2572</v>
       </c>
@@ -32989,7 +32990,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>2583</v>
       </c>
@@ -33069,7 +33070,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>2591</v>
       </c>
@@ -33149,7 +33150,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>2600</v>
       </c>
@@ -33229,7 +33230,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>2603</v>
       </c>
@@ -33309,7 +33310,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>2613</v>
       </c>
@@ -33389,7 +33390,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>2615</v>
       </c>
@@ -33469,7 +33470,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>2624</v>
       </c>
@@ -33549,7 +33550,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>2631</v>
       </c>
@@ -33629,7 +33630,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>2640</v>
       </c>
@@ -33709,7 +33710,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>2649</v>
       </c>
@@ -33789,7 +33790,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>2658</v>
       </c>
@@ -33869,7 +33870,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2662</v>
       </c>
@@ -33949,7 +33950,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>2673</v>
       </c>
@@ -34029,7 +34030,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>2681</v>
       </c>
@@ -34109,7 +34110,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>3638</v>
       </c>
@@ -34189,7 +34190,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>2691</v>
       </c>
@@ -34269,7 +34270,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>2694</v>
       </c>
@@ -34349,7 +34350,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>2699</v>
       </c>
@@ -34432,7 +34433,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>2706</v>
       </c>
@@ -34512,7 +34513,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>2715</v>
       </c>
@@ -34592,7 +34593,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>2721</v>
       </c>
@@ -34678,7 +34679,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>2732</v>
       </c>
@@ -34758,7 +34759,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>2740</v>
       </c>
@@ -34838,7 +34839,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>2747</v>
       </c>
@@ -34918,7 +34919,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>2757</v>
       </c>
@@ -34998,7 +34999,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>2769</v>
       </c>
@@ -35075,7 +35076,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2775</v>
       </c>
@@ -35158,7 +35159,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2785</v>
       </c>
@@ -35238,7 +35239,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>2795</v>
       </c>
@@ -35318,7 +35319,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>2806</v>
       </c>
@@ -35395,7 +35396,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>2817</v>
       </c>
@@ -35475,7 +35476,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>2821</v>
       </c>
@@ -35555,7 +35556,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>2831</v>
       </c>
@@ -35635,7 +35636,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>2842</v>
       </c>
@@ -35715,7 +35716,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>2848</v>
       </c>
@@ -35795,7 +35796,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>2855</v>
       </c>
@@ -35878,7 +35879,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>2865</v>
       </c>
@@ -35958,7 +35959,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>2871</v>
       </c>
@@ -36041,7 +36042,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>2878</v>
       </c>
@@ -36121,7 +36122,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>2885</v>
       </c>
@@ -36201,7 +36202,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>2892</v>
       </c>
@@ -36284,7 +36285,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>2900</v>
       </c>
@@ -36364,7 +36365,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>2908</v>
       </c>
@@ -36447,7 +36448,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>2913</v>
       </c>
@@ -36527,7 +36528,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>2921</v>
       </c>
@@ -36610,7 +36611,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2927</v>
       </c>
@@ -36690,7 +36691,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>2935</v>
       </c>
@@ -36770,7 +36771,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>2941</v>
       </c>
@@ -36847,7 +36848,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>2949</v>
       </c>
@@ -36927,7 +36928,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>2960</v>
       </c>
@@ -37007,7 +37008,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>2970</v>
       </c>
@@ -37087,7 +37088,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>2978</v>
       </c>
@@ -37167,7 +37168,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>2986</v>
       </c>
@@ -37247,7 +37248,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>2993</v>
       </c>
@@ -37324,7 +37325,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>3006</v>
       </c>
@@ -37401,7 +37402,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>3014</v>
       </c>
@@ -37478,7 +37479,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>3022</v>
       </c>
@@ -37555,7 +37556,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>3029</v>
       </c>
@@ -37632,7 +37633,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>3038</v>
       </c>
@@ -37709,7 +37710,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>3044</v>
       </c>
@@ -37789,7 +37790,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>3053</v>
       </c>
@@ -37869,7 +37870,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>3060</v>
       </c>
@@ -37949,7 +37950,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>3068</v>
       </c>
@@ -38029,7 +38030,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>3074</v>
       </c>
@@ -38109,7 +38110,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>3078</v>
       </c>
@@ -38189,7 +38190,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>3087</v>
       </c>
@@ -38269,7 +38270,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>3095</v>
       </c>
@@ -38346,7 +38347,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>3102</v>
       </c>
@@ -38426,7 +38427,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>3111</v>
       </c>
@@ -38506,7 +38507,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>3119</v>
       </c>
@@ -38586,7 +38587,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>3127</v>
       </c>
@@ -38666,7 +38667,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>3135</v>
       </c>
@@ -38746,7 +38747,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>3144</v>
       </c>
@@ -38826,7 +38827,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>3152</v>
       </c>
@@ -38906,7 +38907,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>3159</v>
       </c>
@@ -38989,7 +38990,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>3173</v>
       </c>
@@ -39066,7 +39067,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>3182</v>
       </c>
@@ -39146,7 +39147,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>3188</v>
       </c>
@@ -39223,7 +39224,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>3198</v>
       </c>
@@ -39300,7 +39301,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>3204</v>
       </c>
@@ -39380,7 +39381,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>3217</v>
       </c>
@@ -39460,7 +39461,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>3226</v>
       </c>
@@ -39540,7 +39541,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>3235</v>
       </c>
@@ -39620,7 +39621,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>3243</v>
       </c>
@@ -39700,7 +39701,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>3253</v>
       </c>
@@ -39780,7 +39781,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>3262</v>
       </c>
@@ -39860,7 +39861,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>3273</v>
       </c>
@@ -39943,7 +39944,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>3280</v>
       </c>
@@ -40023,7 +40024,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>3289</v>
       </c>
@@ -40103,7 +40104,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>3297</v>
       </c>
@@ -40183,7 +40184,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>3299</v>
       </c>
@@ -40263,7 +40264,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>3306</v>
       </c>
@@ -40343,7 +40344,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>3316</v>
       </c>
@@ -40423,7 +40424,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>3325</v>
       </c>
@@ -40506,7 +40507,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>3331</v>
       </c>
@@ -40586,7 +40587,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>3339</v>
       </c>
@@ -40666,7 +40667,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>3346</v>
       </c>
@@ -40746,7 +40747,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>3353</v>
       </c>
@@ -40826,7 +40827,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>3357</v>
       </c>
@@ -40906,7 +40907,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>3363</v>
       </c>
@@ -40986,7 +40987,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>3368</v>
       </c>
@@ -41066,7 +41067,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>3376</v>
       </c>
@@ -41143,7 +41144,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>3390</v>
       </c>
@@ -41223,7 +41224,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>3398</v>
       </c>
@@ -41303,7 +41304,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>3404</v>
       </c>
@@ -41383,7 +41384,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>3415</v>
       </c>
@@ -41463,7 +41464,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>3423</v>
       </c>
@@ -41543,7 +41544,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>3431</v>
       </c>
@@ -41623,7 +41624,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>3436</v>
       </c>
@@ -41703,7 +41704,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>3444</v>
       </c>
@@ -41783,7 +41784,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>3453</v>
       </c>
@@ -41863,7 +41864,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>3463</v>
       </c>
@@ -41946,7 +41947,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>3475</v>
       </c>
@@ -42026,7 +42027,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>3482</v>
       </c>
@@ -42109,7 +42110,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>3489</v>
       </c>
@@ -42189,7 +42190,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>3498</v>
       </c>
@@ -42272,7 +42273,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>3507</v>
       </c>
@@ -42352,7 +42353,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>3518</v>
       </c>
@@ -42432,7 +42433,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>3527</v>
       </c>
@@ -42515,7 +42516,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>3531</v>
       </c>
@@ -42595,7 +42596,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>3539</v>
       </c>
@@ -42675,7 +42676,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>3547</v>
       </c>
@@ -42755,7 +42756,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>3556</v>
       </c>
@@ -42835,7 +42836,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>3558</v>
       </c>
@@ -42915,7 +42916,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>3562</v>
       </c>
@@ -42995,7 +42996,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>3568</v>
       </c>
@@ -43075,7 +43076,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="397" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>3574</v>
       </c>
@@ -43155,7 +43156,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>3581</v>
       </c>
@@ -43235,7 +43236,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="399" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>3588</v>
       </c>
@@ -43315,7 +43316,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="400" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>3595</v>
       </c>
@@ -43392,7 +43393,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="401" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>3602</v>
       </c>
@@ -43472,7 +43473,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="402" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>3611</v>
       </c>
@@ -43552,7 +43553,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>3619</v>
       </c>
@@ -43632,7 +43633,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="404" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>3627</v>
       </c>
@@ -43712,7 +43713,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="405" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>3633</v>
       </c>
@@ -43793,7 +43794,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC405" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AC405" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="50370975"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>